--- a/test-plan/objectives and cases.xlsx
+++ b/test-plan/objectives and cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="objectives" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="154">
   <si>
     <t>Test Scenario #</t>
   </si>
@@ -359,13 +359,6 @@
     <t>Search an existing book with wrong author</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Search an existing book
-2. Search with all fields empty
-3. Search a non existing book
-4. Search an existing book with wrong author
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Open "Book depository" advanced search page
 2. Enter "City Of Glass" in title and "J K Rowling" in author.
 3. Click search.
@@ -467,12 +460,137 @@
   <si>
     <t>TC-25</t>
   </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>test_bestseller_button</t>
+  </si>
+  <si>
+    <t>test_coming_soon_button</t>
+  </si>
+  <si>
+    <t>test_new_releases_button</t>
+  </si>
+  <si>
+    <t>test_contact_us_button</t>
+  </si>
+  <si>
+    <t>test_help_button</t>
+  </si>
+  <si>
+    <t>test_advanced_search_button</t>
+  </si>
+  <si>
+    <t>test_book_logo</t>
+  </si>
+  <si>
+    <t>test_home_button</t>
+  </si>
+  <si>
+    <t>test_top_categories</t>
+  </si>
+  <si>
+    <t>test_more_categories</t>
+  </si>
+  <si>
+    <t>test_top_authors</t>
+  </si>
+  <si>
+    <t>test_bestselling_series</t>
+  </si>
+  <si>
+    <t>test_popular_features</t>
+  </si>
+  <si>
+    <t>test_search_existing_book</t>
+  </si>
+  <si>
+    <t>test_press_empty</t>
+  </si>
+  <si>
+    <t>test_search_non_existing_book</t>
+  </si>
+  <si>
+    <t>test_existing_book_advanced</t>
+  </si>
+  <si>
+    <t>test_search_empty_fields</t>
+  </si>
+  <si>
+    <t>test_non_existing_book_advanced</t>
+  </si>
+  <si>
+    <t>test_existing_book_wrong_author</t>
+  </si>
+  <si>
+    <t>test_spanish</t>
+  </si>
+  <si>
+    <t>test_return_english</t>
+  </si>
+  <si>
+    <t>test_overeview_features</t>
+  </si>
+  <si>
+    <t>test_existing_book_correct_author</t>
+  </si>
+  <si>
+    <t>test_existing_book_all_tabs_correct</t>
+  </si>
+  <si>
+    <t>Search an existing book with correct author</t>
+  </si>
+  <si>
+    <t>Able to search for existing books with correct author and find them.</t>
+  </si>
+  <si>
+    <t>Search and existing book with correct author, publisher, language and a matching keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Book depository" advanced search page
+2. Enter "City Of Glass" in title, "Cassandra Clare" in author, " Walker Books Ltd" in publisher and "city of glass" in keyword.
+3. Enter English in language.
+4. Click search.
+5. Check that you navigated into the "Search results for city of glass" page
+6.Check that the book "City Of Glass is displayed in the page.
+</t>
+  </si>
+  <si>
+    <t>Navigated to the page "Search results for City Of Glass" and found the book "City Of Glass" in it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Book depository" advanced search page
+2. Enter "City Of Glass" in title and "Cassandra Clare" in author.
+3. Click search.
+4. Check that you navigated into the "Search results for City Of Glass" page
+5.Check that the book "City Of Glass is displayed in the page.
+</t>
+  </si>
+  <si>
+    <t>TC-26</t>
+  </si>
+  <si>
+    <t>TC-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Search an existing book
+2. Search with all fields empty
+3. Search a non existing book
+4. Search an existing book with wrong author
+5. Search an existing book with correct author
+6. Search and existing book with correct author, publisher, language and a matching keyword
+</t>
+  </si>
+  <si>
+    <t>Total of 27 Tests</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +601,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -545,6 +669,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,7 +1039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -917,7 +1047,7 @@
         <v>78</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -925,10 +1055,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -939,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -950,7 +1080,9 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -1074,564 +1206,690 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:F38"/>
+  <dimension ref="A7:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="181.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="D31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="33" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="6" t="s">
+    <row r="34" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="5"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D38" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-plan/objectives and cases.xlsx
+++ b/test-plan/objectives and cases.xlsx
@@ -116,62 +116,25 @@
     <t>Test Bestsellers button</t>
   </si>
   <si>
-    <t>1. Open "Book depository" home page
-2. press the bestsellers button
-3. Check that you are now in the bestsellers page</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
     <t>Test Coming soon button</t>
   </si>
   <si>
-    <t>1. Open "Book depository" home page
-2. press the Coming soon button
-3. Check that you are now in the "coming soon" page</t>
-  </si>
-  <si>
     <t>Test New Releases button</t>
   </si>
   <si>
-    <t>1. Open "Book depository" home page
-2. press the "New Releases" button
-3. Check that you are now in the "New Releases" page</t>
-  </si>
-  <si>
     <t>Test Book logo button</t>
   </si>
   <si>
-    <t>1. Open "Book depository" home page
-2. press the bestsellers button
-3. In the bestsellers page, press the Book logo on the left.
-4. Check that you moved back to the website's home page</t>
-  </si>
-  <si>
     <t>Test home button</t>
   </si>
   <si>
-    <t>1. Open "Book depository" home page
-2. press the bestsellers button
-3. In the bestsellers page, press the home button.
-4. Check that you moved back to the website's home page</t>
-  </si>
-  <si>
     <t>Test contact us button</t>
   </si>
   <si>
-    <t>1. Open "Book depository" home page
-2. press the "Contact us" button
-3. Check that you are now in the "Contact us" page</t>
-  </si>
-  <si>
     <t>Test help button</t>
-  </si>
-  <si>
-    <t>1. Open "Book depository" home page
-2. press the help button
-3. Check that you are now in the help page</t>
   </si>
   <si>
     <t>Managed to navigate to the bestsellers page</t>
@@ -296,11 +259,6 @@
   </si>
   <si>
     <t>Test "Advanced Search" button</t>
-  </si>
-  <si>
-    <t>1. Open "Book depository" home page
-2. press the "Advanced Search" button
-3. Check that you are now in the "advanced Search" page</t>
   </si>
   <si>
     <t>Managed to navigate to the "Advanced search" page</t>
@@ -317,20 +275,6 @@
 </t>
   </si>
   <si>
-    <t>1. Open "Book depository" home page
-2. Enter "City Of Glass" into the search tab and click search.
-3.  Check that you navigated into the "Search results for City Of Glass" page
-4. Check that the book "City Of Glass is displayed in the page.
-5. Do steps 1-4 again for the book "The wave"</t>
-  </si>
-  <si>
-    <t>1. Open "Book depository" advanced search page
-2. Enter "City Of Glass" in title.
-3. Click search.
-4. Check that you navigated into the "Search results for city of glass" page
-5.Check that the book "City Of Glass is displayed in the page.</t>
-  </si>
-  <si>
     <t>Search an existing book - advanced</t>
   </si>
   <si>
@@ -348,12 +292,6 @@
   </si>
   <si>
     <t>Search a non existing book - advanced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Book depository" advanced search page
-2. Enter "MMMM1234" as title into the search tab and click search.
-3.  Check that you re-navigated to the "advanced search" page
-</t>
   </si>
   <si>
     <t>Search an existing book with wrong author</t>
@@ -390,9 +328,6 @@
     <t>The title of the web-page is the book's title</t>
   </si>
   <si>
-    <t xml:space="preserve"> Check that the page shows "product details" table</t>
-  </si>
-  <si>
     <t>The page shows "product details" table</t>
   </si>
   <si>
@@ -405,9 +340,6 @@
     <t>The page shows the book's price</t>
   </si>
   <si>
-    <t xml:space="preserve"> Check that the page shows the book's price</t>
-  </si>
-  <si>
     <t>1. Check that the title of the web-page is the book's title
 2. Check that the page shows "product details" table
 3. Check that the page shows the book's price</t>
@@ -420,18 +352,6 @@
   </si>
   <si>
     <t>Switch back to english</t>
-  </si>
-  <si>
-    <t>1. Switch to Spanish and check that the main page buttons are in the correct language
-2.Switch back to English</t>
-  </si>
-  <si>
-    <t>1. Open  "Book depository" home page
-2. Hover the mouse over "English" in the main toolbar
-3. Click on Spanish
-4.You are now in the spanish page, now hover your mouse over "Espanol"
-5.  Click on English
-6. Check that you are back on the english page by checking that you can see the "Bestsellers" button</t>
   </si>
   <si>
     <t>Managed to switch back to English</t>
@@ -548,24 +468,7 @@
     <t>Search and existing book with correct author, publisher, language and a matching keyword</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open "Book depository" advanced search page
-2. Enter "City Of Glass" in title, "Cassandra Clare" in author, " Walker Books Ltd" in publisher and "city of glass" in keyword.
-3. Enter English in language.
-4. Click search.
-5. Check that you navigated into the "Search results for city of glass" page
-6.Check that the book "City Of Glass is displayed in the page.
-</t>
-  </si>
-  <si>
     <t>Navigated to the page "Search results for City Of Glass" and found the book "City Of Glass" in it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Book depository" advanced search page
-2. Enter "City Of Glass" in title and "Cassandra Clare" in author.
-3. Click search.
-4. Check that you navigated into the "Search results for City Of Glass" page
-5.Check that the book "City Of Glass is displayed in the page.
-</t>
   </si>
   <si>
     <t>TC-26</t>
@@ -584,6 +487,103 @@
   </si>
   <si>
     <t>Total of 27 Tests</t>
+  </si>
+  <si>
+    <t>Check that the page shows the book's price</t>
+  </si>
+  <si>
+    <t>Check that the page shows "product details" table</t>
+  </si>
+  <si>
+    <t>1. Open "Book depository" home page
+2. Press the bestsellers button
+3. Check that you are now in the bestsellers page</t>
+  </si>
+  <si>
+    <t>1. Open "Book depository" home page
+2. Press the Coming soon button
+3. Check that you are now in the "coming soon" page</t>
+  </si>
+  <si>
+    <t>1. Open "Book depository" home page
+2. Press the "New Releases" button
+3. Check that you are now in the "New Releases" page</t>
+  </si>
+  <si>
+    <t>1. Open "Book depository" home page
+2. Press the bestsellers button
+3. In the bestsellers page, press the Book logo on the left.
+4. Check that you moved back to the website's home page</t>
+  </si>
+  <si>
+    <t>1. Open "Book depository" home page
+2. Press the bestsellers button
+3. In the bestsellers page, press the home button.
+4. Check that you moved back to the website's home page</t>
+  </si>
+  <si>
+    <t>1. Open "Book depository" home page
+2. Press the "Contact us" button
+3. Check that you are now in the "Contact us" page</t>
+  </si>
+  <si>
+    <t>1. Open "Book depository" home page
+2. Press the help button
+3. Check that you are now in the help page</t>
+  </si>
+  <si>
+    <t>1. Open "Book depository" home page
+2. Press the "Advanced Search" button
+3. Check that you are now in the "advanced Search" page</t>
+  </si>
+  <si>
+    <t>1. Open "Book depository" home page
+2. Enter "City Of Glass" into the search tab and click search.
+3. Check that you navigated into the "Search results for City Of Glass" page
+4. Check that the book "City Of Glass is displayed in the page.
+5. Do steps 1-4 again for the book "The wave"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Book depository" advanced search page
+2. Enter "MMMM1234" as title into the search tab and click search.
+3. Check that you re-navigated to the "advanced search" page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Book depository" advanced search page
+2. Enter "City Of Glass" in title, "Cassandra Clare" in author, " Walker Books Ltd" in publisher and "city of glass" in keyword.
+3. Enter English in language.
+4. Click search.
+5. Check that you navigated into the "Search results for city of glass" page
+6. Check that the book "City Of Glass is displayed in the page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "Book depository" advanced search page
+2. Enter "City Of Glass" in title and "Cassandra Clare" in author.
+3. Click search.
+4. Check that you navigated into the "Search results for City Of Glass" page
+5. Check that the book "City Of Glass is displayed in the page.
+</t>
+  </si>
+  <si>
+    <t>1. Open "Book depository" advanced search page
+2. Enter "City Of Glass" in title.
+3. Click search.
+4. Check that you navigated into the "Search results for city of glass" page
+5. Check that the book "City Of Glass is displayed in the page.</t>
+  </si>
+  <si>
+    <t>1. Open  "Book depository" home page
+2. Hover the mouse over "English" in the main toolbar
+3. Click on Spanish
+4. You are now in the spanish page, now hover your mouse over "Espanol"
+5.  Click on English
+6. Check that you are back on the english page by checking that you can see the "Bestsellers" button</t>
+  </si>
+  <si>
+    <t>1. Switch to Spanish and check that the main page buttons are in the correct language
+2. Switch back to English</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1025,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,10 +1044,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1055,10 +1055,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1069,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,7 +1081,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1251,7 +1251,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
@@ -1260,13 +1260,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1274,22 +1274,22 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1297,22 +1297,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,22 +1320,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1343,22 +1343,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1366,22 +1366,22 @@
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1389,22 +1389,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1412,22 +1412,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1435,22 +1435,22 @@
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1458,22 +1458,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1481,22 +1481,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1504,22 +1504,22 @@
         <v>24</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1527,45 +1527,45 @@
         <v>25</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1573,22 +1573,22 @@
         <v>27</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
@@ -1596,22 +1596,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1619,22 +1619,22 @@
         <v>29</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -1642,22 +1642,22 @@
         <v>30</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -1665,206 +1665,206 @@
         <v>31</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="181.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
